--- a/biology/Botanique/Dalibarde_rampante/Dalibarde_rampante.xlsx
+++ b/biology/Botanique/Dalibarde_rampante/Dalibarde_rampante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dalibarda, Dalibarda repens
 La Dalibarde rampante (Dalibarda repens) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est la seule espèce classée dans le genre Dalibarda.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalibarda repens fut nommée en l'honneur du naturaliste français Thomas-François Dalibard (1709-1778). Étant la seule représentante de son genre, les botanistes eurent peur qu'elle souffre de solitude et la rapatrièrent dans le genre des ronces (Rubus)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalibarda repens fut nommée en l'honneur du naturaliste français Thomas-François Dalibard (1709-1778). Étant la seule représentante de son genre, les botanistes eurent peur qu'elle souffre de solitude et la rapatrièrent dans le genre des ronces (Rubus).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalibarda repens est une plante herbacée qui se reconnaît à ses tiges rampantes et inermes, ses feuilles simples, ovales et orbiculées, ses longs pétioles à poils étalés, ses fleurs pétalifères stériles sur de longs pédicelles et ses fleurs apétales fertiles sur de courts pédicelles, et ses fruits essentiellement secs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalibarda repens est une plante herbacée qui se reconnaît à ses tiges rampantes et inermes, ses feuilles simples, ovales et orbiculées, ses longs pétioles à poils étalés, ses fleurs pétalifères stériles sur de longs pédicelles et ses fleurs apétales fertiles sur de courts pédicelles, et ses fruits essentiellement secs.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dalibarde rampante pousse dans les sols frais et humides comme dans les bois tourbeux ou marécageux, dans les forêts mixtes ou résineuses.
 </t>
